--- a/2023_D4SIB_daftar_mahasiswa.xlsx
+++ b/2023_D4SIB_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Python Scripts\Nilai Mahasiswa ver 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1777CE-05D1-4286-8EF5-2201849E7C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4934C-E987-48C5-9CFA-707047290040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
   <si>
     <t>Nama</t>
   </si>
@@ -45,24 +45,12 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ABDULLAH SIREGAR</t>
-  </si>
-  <si>
     <t>ADIMINE HURA</t>
   </si>
   <si>
-    <t>ADRIANUS TUDOVI</t>
-  </si>
-  <si>
     <t>AGUSTINUS FIRMAN GULO</t>
   </si>
   <si>
-    <t>ALFIARMAN HALAWA</t>
-  </si>
-  <si>
-    <t>AMROSIUS S</t>
-  </si>
-  <si>
     <t>ANISWARA SIMANJUNTAK</t>
   </si>
   <si>
@@ -72,373 +60,427 @@
     <t>BENGET TAMBUNAN</t>
   </si>
   <si>
-    <t>CHINDY TIARA</t>
-  </si>
-  <si>
-    <t>DAHRUL APANDI RITONGA</t>
-  </si>
-  <si>
     <t>DINDA PUSPITA</t>
   </si>
   <si>
-    <t>DOLI MAROLOP S</t>
-  </si>
-  <si>
-    <t>DRASTI TRI WARDANI</t>
-  </si>
-  <si>
     <t>ELFRIDA SINAGA</t>
   </si>
   <si>
-    <t>EVI SUETNI HUTABARAT</t>
-  </si>
-  <si>
     <t>FENTI YANTI NASUTION</t>
   </si>
   <si>
-    <t>FLORA ESMANISWASTI ZAI</t>
+    <t>GLORA FAULINA</t>
+  </si>
+  <si>
+    <t>JELITA WULANDARI</t>
+  </si>
+  <si>
+    <t>JULVAN EEFENDI ZAI</t>
+  </si>
+  <si>
+    <t>JUNIUS SATRIO HALOMOAN SIHOMBING</t>
+  </si>
+  <si>
+    <t>KRISTANTO SARAGETI</t>
+  </si>
+  <si>
+    <t>LINDUNG AMAN HALAWA</t>
+  </si>
+  <si>
+    <t>LISTA LAIA</t>
+  </si>
+  <si>
+    <t>LUSIA HOTPERA</t>
+  </si>
+  <si>
+    <t>MARIA GORETTI</t>
+  </si>
+  <si>
+    <t>MARLINA NDRURU</t>
+  </si>
+  <si>
+    <t>MAYLI</t>
+  </si>
+  <si>
+    <t>MELODIANIS DAELI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIFALDI</t>
+  </si>
+  <si>
+    <t>NOVITA SARI BR HUTABARAT</t>
+  </si>
+  <si>
+    <t>NUR AINUN BR GINTING</t>
+  </si>
+  <si>
+    <t>NURETIKA HANUM</t>
+  </si>
+  <si>
+    <t>PERIANI GEA</t>
+  </si>
+  <si>
+    <t>RIANI TAMBA</t>
+  </si>
+  <si>
+    <t>RIFNI FEBRIANI WARUWU</t>
+  </si>
+  <si>
+    <t>ROYMAN LAIA</t>
+  </si>
+  <si>
+    <t>SRI WARNIATI</t>
+  </si>
+  <si>
+    <t>TABIB PERIANTO</t>
+  </si>
+  <si>
+    <t>TAMRIN SIMAMORA</t>
+  </si>
+  <si>
+    <t>YESICCA WIDYA ANGELINA SIPAHUTAR</t>
+  </si>
+  <si>
+    <t>YUSIMA LAIA</t>
+  </si>
+  <si>
+    <t>ZILVA SAUMANUK</t>
+  </si>
+  <si>
+    <t>AFNIKA SINAGA</t>
+  </si>
+  <si>
+    <t>TIA MAGHFIRAH</t>
+  </si>
+  <si>
+    <t>LISBET KRISNAWATI TAMBUNAN</t>
+  </si>
+  <si>
+    <t>ANTONIA ASMADINATA SARUMAHA</t>
+  </si>
+  <si>
+    <t>NIKITA AMELIA MARGARETH MANULLANG</t>
+  </si>
+  <si>
+    <t>ANJU RAJAGUKGUK</t>
+  </si>
+  <si>
+    <t>NOSMAN GULO</t>
+  </si>
+  <si>
+    <t>ROGANDA R HUTASOIT</t>
+  </si>
+  <si>
+    <t>WELMAN SAPUTRA HUTASOIT</t>
+  </si>
+  <si>
+    <t>HOTMA DITA YULIANA</t>
+  </si>
+  <si>
+    <t>NORIS MISSNARIANG LAWOLO</t>
+  </si>
+  <si>
+    <t>WILISNA ZAI</t>
+  </si>
+  <si>
+    <t>LISTARI GULO</t>
+  </si>
+  <si>
+    <t>DWIKI HADI DARMAWAN</t>
+  </si>
+  <si>
+    <t>SARI NARTI SIAGIAN</t>
+  </si>
+  <si>
+    <t>NOVITASARI</t>
+  </si>
+  <si>
+    <t>RONI PRAYOGI SITINJAK</t>
+  </si>
+  <si>
+    <t>WINES ASWITA GIAWA</t>
+  </si>
+  <si>
+    <t>afnisinaga50@gmail.com</t>
+  </si>
+  <si>
+    <t>agustinusgulo489@gmail.com</t>
+  </si>
+  <si>
+    <t>anjurajagukguk123@gmail.com</t>
+  </si>
+  <si>
+    <t>antonsarageti@gmail.com</t>
+  </si>
+  <si>
+    <t>aryantomarbunmarbun@gmail.com</t>
+  </si>
+  <si>
+    <t>bengettambunan67@gmail.com</t>
+  </si>
+  <si>
+    <t>adiminehura23092003@gmail.com</t>
+  </si>
+  <si>
+    <t>aniswarasimanjuntak39@gmail.com</t>
+  </si>
+  <si>
+    <t>dinda2019puspita@gmail.com</t>
+  </si>
+  <si>
+    <t>elfridasinaga1505@gmail.com</t>
+  </si>
+  <si>
+    <t>fareluuy23@gmail.com</t>
+  </si>
+  <si>
+    <t>glorafaulinaparhusip@gmail.com</t>
+  </si>
+  <si>
+    <t>julvanevendizaijulvanzai@gmail.com</t>
+  </si>
+  <si>
+    <t>sihombing.satrio79@gmail.com</t>
+  </si>
+  <si>
+    <t>lindungamanh@gmail.com</t>
+  </si>
+  <si>
+    <t>ferrygulo101@gmail.com</t>
+  </si>
+  <si>
+    <t>listalaia089@gmail.com</t>
+  </si>
+  <si>
+    <t>lusiahotpera40@gmail.com</t>
+  </si>
+  <si>
+    <t>sabeuleleumariagoretti@gmail.com</t>
+  </si>
+  <si>
+    <t>marlinandruru849@gmail.com</t>
+  </si>
+  <si>
+    <t>maylimayli309@gmail.com</t>
+  </si>
+  <si>
+    <t>melodi.daeli03@gmail.com</t>
+  </si>
+  <si>
+    <t>muhammadrifaldi130502@gmail.com</t>
+  </si>
+  <si>
+    <t>quenzy05.hutabarat18@gmail.com</t>
+  </si>
+  <si>
+    <t>ainun9564@gmail.com</t>
+  </si>
+  <si>
+    <t>nuretikahanum23@gmail.com</t>
+  </si>
+  <si>
+    <t>perianigeap@gmail.com</t>
+  </si>
+  <si>
+    <t>rianitamba762@gmail.com</t>
+  </si>
+  <si>
+    <t>tambariani6@gmail.com</t>
+  </si>
+  <si>
+    <t>rifniwaruwu@gmail.com</t>
+  </si>
+  <si>
+    <t>royman241@gmail.com</t>
+  </si>
+  <si>
+    <t>sriwarniati6@gmail.com</t>
+  </si>
+  <si>
+    <t>tabibperianto@gmail.com</t>
+  </si>
+  <si>
+    <t>tamrinsimamora29@gmail.com</t>
+  </si>
+  <si>
+    <t>yessicawidyasipahutar@gmail.com</t>
+  </si>
+  <si>
+    <t>lisbettambunan260@gmail.com</t>
+  </si>
+  <si>
+    <t>niki150902@gmail.com</t>
+  </si>
+  <si>
+    <t>nosmangulo99@gmail.com</t>
+  </si>
+  <si>
+    <t>rogandasoit@gmail.com</t>
+  </si>
+  <si>
+    <t>welmanhutasoit33@gmail.com</t>
+  </si>
+  <si>
+    <t>Dikyelhaadi97@gmail.com</t>
+  </si>
+  <si>
+    <t>novisarisiagian@gmail.com</t>
+  </si>
+  <si>
+    <t>ronisitinjak76@gmail.com</t>
+  </si>
+  <si>
+    <t>CINDY NABILA</t>
+  </si>
+  <si>
+    <t>SONIA TRISANTA MANALU</t>
+  </si>
+  <si>
+    <t>RAFAEL PANJAITAN</t>
+  </si>
+  <si>
+    <t>SIRILA NDRURU</t>
+  </si>
+  <si>
+    <t>KHANITA AULIA</t>
+  </si>
+  <si>
+    <t>YOHANES DEDI DONBOSCO BERE</t>
+  </si>
+  <si>
+    <t>YANUARIUS YANUARI GULO</t>
+  </si>
+  <si>
+    <t>YURNITA LAOLI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAFRIL SIKUWAI</t>
+  </si>
+  <si>
+    <t>MELANTI ARDINA</t>
+  </si>
+  <si>
+    <t>ERLINDA LISMAWATI HALAWA</t>
+  </si>
+  <si>
+    <t>VIDELIS SABAGGALET</t>
+  </si>
+  <si>
+    <t>OKTAVIA R SIMANULLANG</t>
+  </si>
+  <si>
+    <t>WIKARMAN NDRURU</t>
+  </si>
+  <si>
+    <t>JUWITA PUTRI HALAWA</t>
+  </si>
+  <si>
+    <t>TALENTA JUNIUS HULU</t>
+  </si>
+  <si>
+    <t>JERNIH MAWARNI LAOLI</t>
+  </si>
+  <si>
+    <t>HARTIKA FEBRIYANI</t>
+  </si>
+  <si>
+    <t>YANA IPAK KARLINA</t>
+  </si>
+  <si>
+    <t>RIZKA DIYANA HASIBUAN</t>
+  </si>
+  <si>
+    <t>sinagaafnika@gmail.com</t>
+  </si>
+  <si>
+    <t>agustinusgulo71@gmail.com</t>
+  </si>
+  <si>
+    <t>allvaresdonbosco@gmail.com</t>
   </si>
   <si>
     <t>FRANSISDA OKTAVIANI SINAGA</t>
   </si>
   <si>
-    <t>FRANSISKUS RINO</t>
-  </si>
-  <si>
-    <t>GLORA FAULINA</t>
-  </si>
-  <si>
-    <t>GUNTUR DALAN TAILELEU</t>
-  </si>
-  <si>
-    <t>HENDRIK JHEN SAMANGILAILAI</t>
-  </si>
-  <si>
-    <t>HICSAN BUDIMAN SAPALAKKAI</t>
-  </si>
-  <si>
-    <t>JACK NOFANDRY TASIRILELEU</t>
-  </si>
-  <si>
-    <t>JELITA WULANDARI</t>
-  </si>
-  <si>
-    <t>JESSY NATALIA OLAFIRSTA NDURU</t>
-  </si>
-  <si>
-    <t>JULVAN EEFENDI ZAI</t>
-  </si>
-  <si>
-    <t>JUNIUS SATRIO HALOMOAN SIHOMBING</t>
-  </si>
-  <si>
-    <t>KASIH SARI AMANDA PURBA</t>
-  </si>
-  <si>
-    <t>KHAIRUL MAHARANI</t>
-  </si>
-  <si>
-    <t>KRISTANTO SARAGETI</t>
-  </si>
-  <si>
-    <t>LIKE KRIS HANDAYANI ZEGA</t>
-  </si>
-  <si>
-    <t>LINDUNG AMAN HALAWA</t>
-  </si>
-  <si>
-    <t>LISTA LAIA</t>
-  </si>
-  <si>
-    <t>LUSIA HOTPERA</t>
-  </si>
-  <si>
-    <t>MARDONES TUKOT TUA HUTABARAT</t>
-  </si>
-  <si>
-    <t>MARIA BERNADETH SITOHANG</t>
-  </si>
-  <si>
-    <t>MARIA GORETTI</t>
-  </si>
-  <si>
-    <t>MARLINA NDRURU</t>
-  </si>
-  <si>
-    <t>MAYLI</t>
-  </si>
-  <si>
-    <t>MELODIANIS DAELI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIFALDI</t>
+    <t>fransisdasinaga7@gmail.com</t>
+  </si>
+  <si>
+    <t>listarygulo@gmail.com</t>
+  </si>
+  <si>
+    <t>guloyanuar002@gmail.com</t>
+  </si>
+  <si>
+    <t>hartikafebriyani@gmail.com</t>
+  </si>
+  <si>
+    <t>jernihlaoli753@gmail.com</t>
+  </si>
+  <si>
+    <t>juwitahalawa6@gmail.com</t>
+  </si>
+  <si>
+    <t>khanitaaulia94@gmail.com</t>
+  </si>
+  <si>
+    <t>lindahalawa42@gmail.com</t>
+  </si>
+  <si>
+    <t>melantikardina@gmail.com</t>
+  </si>
+  <si>
+    <t>siagiansari8@gmail.com</t>
   </si>
   <si>
     <t>NICE JOIFIALLINA MARUNDURI</t>
   </si>
   <si>
-    <t>NOVITA SARI BR HUTABARAT</t>
-  </si>
-  <si>
-    <t>NUR AINUN BR GINTING</t>
-  </si>
-  <si>
-    <t>NURETIKA HANUM</t>
-  </si>
-  <si>
-    <t>OSCAR JUNIMAN HALAWA</t>
-  </si>
-  <si>
-    <t>PERIANI GEA</t>
-  </si>
-  <si>
-    <t>RIANI TAMBA</t>
-  </si>
-  <si>
-    <t>RIFNI FEBRIANI WARUWU</t>
-  </si>
-  <si>
-    <t>RINALDI SAPUTRA SAMONGILAILAI</t>
-  </si>
-  <si>
-    <t>RINDI ANTIKA SEMBIRING</t>
-  </si>
-  <si>
-    <t>ROYMAN LAIA</t>
-  </si>
-  <si>
-    <t>SITI HABIBAH</t>
-  </si>
-  <si>
-    <t>SRI WARNIATI</t>
-  </si>
-  <si>
-    <t>TABIB PERIANTO</t>
-  </si>
-  <si>
-    <t>TAMRIN SIMAMORA</t>
-  </si>
-  <si>
-    <t>TETTY KRISTINA MANURUNG</t>
-  </si>
-  <si>
-    <t>TONINO TATOLEURU</t>
-  </si>
-  <si>
-    <t>TRI MURTI MANURUNG</t>
-  </si>
-  <si>
-    <t>YESICCA WIDYA ANGELINA SIPAHUTAR</t>
-  </si>
-  <si>
-    <t>YUSIMA LAIA</t>
-  </si>
-  <si>
-    <t>ZILVA SAUMANUK</t>
-  </si>
-  <si>
-    <t>AFNIKA SINAGA</t>
-  </si>
-  <si>
-    <t>TIA MAGHFIRAH</t>
-  </si>
-  <si>
-    <t>LISBET KRISNAWATI TAMBUNAN</t>
-  </si>
-  <si>
-    <t>ANTONIA ASMADINATA SARUMAHA</t>
-  </si>
-  <si>
-    <t>RIZKA DANIATY SAMUTTEI</t>
-  </si>
-  <si>
-    <t>HOTMARIA MANURUNG</t>
-  </si>
-  <si>
-    <t>NIKITA AMELIA MARGARETH MANULLANG</t>
-  </si>
-  <si>
-    <t>ANJU RAJAGUKGUK</t>
-  </si>
-  <si>
-    <t>NOSMAN GULO</t>
-  </si>
-  <si>
-    <t>SRI RAHAYU</t>
-  </si>
-  <si>
-    <t>ROGANDA R HUTASOIT</t>
-  </si>
-  <si>
-    <t>WELMAN SAPUTRA HUTASOIT</t>
-  </si>
-  <si>
-    <t>HOTMA DITA YULIANA</t>
-  </si>
-  <si>
-    <t>NORIS MISSNARIANG LAWOLO</t>
-  </si>
-  <si>
-    <t>WILISNA ZAI</t>
-  </si>
-  <si>
-    <t>LISTARI GULO</t>
-  </si>
-  <si>
-    <t>DWIKI HADI DARMAWAN</t>
-  </si>
-  <si>
-    <t>SARI NARTI SIAGIAN</t>
-  </si>
-  <si>
-    <t>ZULHAIRANI PUTRI</t>
-  </si>
-  <si>
-    <t>NOVITASARI</t>
-  </si>
-  <si>
-    <t>RONI PRAYOGI SITINJAK</t>
-  </si>
-  <si>
-    <t>WINES ASWITA GIAWA</t>
-  </si>
-  <si>
-    <t>afnisinaga50@gmail.com</t>
-  </si>
-  <si>
-    <t>agustinusgulo489@gmail.com</t>
-  </si>
-  <si>
-    <t>anjurajagukguk123@gmail.com</t>
-  </si>
-  <si>
-    <t>antonsarageti@gmail.com</t>
-  </si>
-  <si>
-    <t>aryantomarbunmarbun@gmail.com</t>
-  </si>
-  <si>
-    <t>bengettambunan67@gmail.com</t>
-  </si>
-  <si>
-    <t>adiminehura23092003@gmail.com</t>
-  </si>
-  <si>
-    <t>aniswarasimanjuntak39@gmail.com</t>
-  </si>
-  <si>
-    <t>dinda2019puspita@gmail.com</t>
-  </si>
-  <si>
-    <t>elfridasinaga1505@gmail.com</t>
-  </si>
-  <si>
-    <t>fareluuy23@gmail.com</t>
-  </si>
-  <si>
-    <t>fransisdasinaga7@gmail.com</t>
-  </si>
-  <si>
-    <t>glorafaulinaparhusip@gmail.com</t>
-  </si>
-  <si>
-    <t>julvanevendizaijulvanzai@gmail.com</t>
-  </si>
-  <si>
-    <t>sihombing.satrio79@gmail.com</t>
-  </si>
-  <si>
-    <t>lindungamanh@gmail.com</t>
-  </si>
-  <si>
-    <t>ferrygulo101@gmail.com</t>
-  </si>
-  <si>
-    <t>listalaia089@gmail.com</t>
-  </si>
-  <si>
-    <t>lusiahotpera40@gmail.com</t>
-  </si>
-  <si>
-    <t>sabeuleleumariagoretti@gmail.com</t>
-  </si>
-  <si>
-    <t>marlinandruru849@gmail.com</t>
-  </si>
-  <si>
-    <t>maylimayli309@gmail.com</t>
-  </si>
-  <si>
-    <t>melodi.daeli03@gmail.com</t>
-  </si>
-  <si>
-    <t>muhammadrifaldi130502@gmail.com</t>
-  </si>
-  <si>
     <t>nicenduru@gmail.com</t>
   </si>
   <si>
-    <t>quenzy05.hutabarat18@gmail.com</t>
-  </si>
-  <si>
-    <t>ainun9564@gmail.com</t>
-  </si>
-  <si>
-    <t>nuretikahanum23@gmail.com</t>
-  </si>
-  <si>
-    <t>perianigeap@gmail.com</t>
-  </si>
-  <si>
-    <t>rianitamba762@gmail.com</t>
-  </si>
-  <si>
-    <t>tambariani6@gmail.com</t>
-  </si>
-  <si>
-    <t>rifniwaruwu@gmail.com</t>
-  </si>
-  <si>
-    <t>royman241@gmail.com</t>
-  </si>
-  <si>
-    <t>sriwarniati6@gmail.com</t>
-  </si>
-  <si>
-    <t>tabibperianto@gmail.com</t>
-  </si>
-  <si>
-    <t>tamrinsimamora29@gmail.com</t>
-  </si>
-  <si>
-    <t>yessicawidyasipahutar@gmail.com</t>
-  </si>
-  <si>
-    <t>lisbettambunan260@gmail.com</t>
+    <t>marbaucell532@gmail.com</t>
+  </si>
+  <si>
+    <t>oktaviarismawati360@gmail.com</t>
+  </si>
+  <si>
+    <t>rafaelpanjaitan745@gmail.com</t>
+  </si>
+  <si>
+    <t>tambariani682@gmail.com</t>
   </si>
   <si>
     <t>rizkadaniaty56@gmail.com</t>
   </si>
   <si>
-    <t>niki150902@gmail.com</t>
-  </si>
-  <si>
-    <t>nosmangulo99@gmail.com</t>
-  </si>
-  <si>
-    <t>rogandasoit@gmail.com</t>
-  </si>
-  <si>
-    <t>welmanhutasoit33@gmail.com</t>
-  </si>
-  <si>
-    <t>Dikyelhaadi97@gmail.com</t>
-  </si>
-  <si>
-    <t>novisarisiagian@gmail.com</t>
-  </si>
-  <si>
-    <t>ronisitinjak76@gmail.com</t>
+    <t>soniamanalu85@gmail.com</t>
+  </si>
+  <si>
+    <t>tiamaghfirah2000@gmail.com</t>
+  </si>
+  <si>
+    <t>talenjuniushulu11@gmail.com</t>
+  </si>
+  <si>
+    <t>sabaggaletvidelis@gmail.com</t>
+  </si>
+  <si>
+    <t>wikarmanblack@gmail.com</t>
+  </si>
+  <si>
+    <t>wikarmanndruru1@gmail.com</t>
+  </si>
+  <si>
+    <t>wilisdohare@gmail.com</t>
+  </si>
+  <si>
+    <t>winesaswitag@gmail.com</t>
+  </si>
+  <si>
+    <t>ifakyana@gmail.com</t>
+  </si>
+  <si>
+    <t>yurnitalaoli016@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,217 +531,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1044,10 +876,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1079,1194 +911,1195 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2023140001</v>
+        <v>2023140002</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>IF(C2=C3,A2,A2+1)</f>
+        <f t="shared" ref="A3:A66" si="0">IF(C2=C3,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2023140002</v>
+        <v>2023140004</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">IF(C3=C4,A3,A3+1)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2023140003</v>
+        <v>2023140004</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2023140004</v>
+        <v>2023140007</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2023140005</v>
+        <v>2023140008</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2023140006</v>
+        <v>2023140009</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>2023140007</v>
+        <v>2023140012</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2023140008</v>
+        <v>2023140015</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>2023140009</v>
+        <v>2023140017</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>2023140010</v>
+        <v>2023140019</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2023140011</v>
+        <v>2023140021</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2023140012</v>
+        <v>2023140026</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>2023140013</v>
+        <v>2023140028</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2023140014</v>
+        <v>2023140029</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>2023140015</v>
+        <v>2023140032</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>2023140016</v>
+        <v>2023140034</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2023140034</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2023140017</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2023140035</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2023140018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
+      <c r="D19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2023140036</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2023140019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2023140039</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2023140020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
+      <c r="D21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>2023140040</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>2023140021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>2023140041</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>2023140022</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
+      <c r="D23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>2023140042</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2023140023</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
+      <c r="D24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2023140043</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2023140024</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="D25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>2023140025</v>
+        <v>2023140044</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>2023140026</v>
+        <v>2023140045</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>2023140027</v>
+        <v>2023140046</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>2023140028</v>
+        <v>2023140047</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>2023140029</v>
+        <v>2023140049</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>2023140030</v>
+        <v>2023140050</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>2023140031</v>
+        <v>2023140050</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>2023140032</v>
+        <v>2023140050</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>2023140033</v>
+        <v>2023140051</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>2023140034</v>
+        <v>2023140054</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>2023140034</v>
+        <v>2023140056</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>2023140035</v>
+        <v>2023140057</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>2023140036</v>
+        <v>2023140058</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39">
-        <v>2023140037</v>
+        <v>2023140062</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>2023140038</v>
+        <v>2023140063</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41">
-        <v>2023140039</v>
+        <v>2023140064</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>2023140040</v>
+        <v>2023140065</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>2023140041</v>
+        <v>2023140065</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>2023140042</v>
+        <v>2023140066</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>2023140043</v>
+        <v>2023140067</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>2023140044</v>
+        <v>2023140068</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47">
-        <v>2023140045</v>
+        <v>2023140071</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>2023140046</v>
+        <v>2023140072</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>2023140047</v>
+        <v>2023140073</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50">
-        <v>2023140048</v>
+        <v>2023140075</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>2023140049</v>
+        <v>2023140076</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>2023140050</v>
+        <v>2023140077</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>2023140050</v>
+        <v>2023140078</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>2023140051</v>
+        <v>2023140079</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>2023140052</v>
+        <v>2023140080</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>2023140053</v>
+        <v>2023140081</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>2023140054</v>
+        <v>2023140082</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>2023140055</v>
+        <v>2023140084</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>2023140056</v>
+        <v>2023140085</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>2023140057</v>
+        <v>2023140086</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>2023140058</v>
+        <v>2023140087</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>2023140059</v>
+        <v>2023140088</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B63">
-        <v>2023140060</v>
+        <v>2023140089</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64">
-        <v>2023140061</v>
+        <v>2023140090</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>2023140062</v>
+        <v>2023140091</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B66">
-        <v>2023140063</v>
+        <v>2023140092</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" ref="A67:A82" si="1">IF(C66=C67,A66,A66+1)</f>
+        <v>61</v>
       </c>
       <c r="B67">
-        <v>2023140064</v>
+        <v>2023140093</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" ref="A68:A89" si="1">IF(C67=C68,A67,A67+1)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>2023140065</v>
+        <v>2023140094</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>2023140066</v>
+        <v>2023140094</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>2023140067</v>
+        <v>2023140095</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>2023140068</v>
+        <v>2023140096</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>108</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B72">
-        <v>2023140069</v>
+        <v>2023140097</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B73">
-        <v>2023140070</v>
+        <v>2023140098</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>2023140071</v>
+        <v>2023140099</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>2023140072</v>
+        <v>2023140100</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>2023140073</v>
+        <v>2023140100</v>
       </c>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B77">
-        <v>2023140074</v>
+        <v>2023140101</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>113</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>2023140075</v>
+        <v>2023140102</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>2023140076</v>
+        <v>2023140103</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B80">
-        <v>2023140077</v>
+        <v>2023140104</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B81">
-        <v>2023140078</v>
+        <v>2023140105</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B82">
-        <v>2023140079</v>
+        <v>2023140108</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B83">
-        <v>2023140080</v>
-      </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B84">
-        <v>2023140081</v>
-      </c>
-      <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B85">
-        <v>2023140082</v>
-      </c>
-      <c r="C85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>2023140083</v>
-      </c>
-      <c r="C86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B87">
-        <v>2023140084</v>
-      </c>
-      <c r="C87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B88">
-        <v>2023140085</v>
-      </c>
-      <c r="C88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B89">
-        <v>2023140086</v>
-      </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-    </row>
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2126,6 @@
     <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2320,6 +2152,7 @@
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -3154,74 +2987,44 @@
     <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B90:C163">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+  <conditionalFormatting sqref="B61:C136">
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H28:H53">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="H14:H33">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C15 B17:C20 B21:B22">
-    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
+  <conditionalFormatting sqref="B2:C11">
+    <cfRule type="duplicateValues" dxfId="6" priority="126"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="duplicateValues" dxfId="5" priority="130"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B41 B42:C89">
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+  <conditionalFormatting sqref="B12 B10:C11 B2:C8">
+    <cfRule type="duplicateValues" dxfId="4" priority="152"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C18">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+  <conditionalFormatting sqref="C2:C21">
+    <cfRule type="duplicateValues" dxfId="3" priority="233"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C41">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+  <conditionalFormatting sqref="D2:D21">
+    <cfRule type="duplicateValues" dxfId="2" priority="235"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D18">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+  <conditionalFormatting sqref="B13:B21 B22:C60">
+    <cfRule type="duplicateValues" dxfId="1" priority="286"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D41">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C100">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:C72">
+    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023_D4SIB_daftar_mahasiswa.xlsx
+++ b/2023_D4SIB_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\My Python Project\match-googleclassroom-grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4934C-E987-48C5-9CFA-707047290040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B4CEA-D1D6-440E-9EB7-BAF35E79FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
   <si>
     <t>Nama</t>
   </si>
@@ -481,13 +481,154 @@
   </si>
   <si>
     <t>yurnitalaoli016@gmail.com</t>
+  </si>
+  <si>
+    <t>DOLI MAROLOP SAING</t>
+  </si>
+  <si>
+    <t>dolymarolop@gmail.com</t>
+  </si>
+  <si>
+    <t>KASIH SARI AMANDA PURBA</t>
+  </si>
+  <si>
+    <t>kasihsariamandapurba@gmail.com</t>
+  </si>
+  <si>
+    <t>RINDI ANTIKA SEMBIRING</t>
+  </si>
+  <si>
+    <t>mahranikhairul72@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIA BERNADETH SITOHANG</t>
+  </si>
+  <si>
+    <t>sitohangmaria.1910@gmail.com</t>
+  </si>
+  <si>
+    <t>RINALDI SAPUTRA</t>
+  </si>
+  <si>
+    <t>rinaldysaputrarinal@gmail.com</t>
+  </si>
+  <si>
+    <t>rindiantikasmbrg123@gmail.com</t>
+  </si>
+  <si>
+    <t>FLORA ESMANISWASTI ZAI</t>
+  </si>
+  <si>
+    <t>floraesmaniswastizai@gmail.com</t>
+  </si>
+  <si>
+    <t>ADRIANUS TUDOVI</t>
+  </si>
+  <si>
+    <t>sailulunit@gmail.com</t>
+  </si>
+  <si>
+    <t>AMROSIUS S</t>
+  </si>
+  <si>
+    <t>ajaambrosius08@gmail.com</t>
+  </si>
+  <si>
+    <t>CHINDY TIARA</t>
+  </si>
+  <si>
+    <t>chindytiara906@gmail.com</t>
+  </si>
+  <si>
+    <t>EVI SUENI HUTABARAT</t>
+  </si>
+  <si>
+    <t>evihutabarat2001@gmail.com</t>
+  </si>
+  <si>
+    <t>FRANSISKUS RINO SATEPUK</t>
+  </si>
+  <si>
+    <t>fsatepukfransis@gmail.com</t>
+  </si>
+  <si>
+    <t>GUNTUR DALAN TAILELEU</t>
+  </si>
+  <si>
+    <t>dalantaileleu@gmail.com</t>
+  </si>
+  <si>
+    <t>HICSAN BUDIMAN SAPALAKKAI</t>
+  </si>
+  <si>
+    <t>santhawai2@gmail.com</t>
+  </si>
+  <si>
+    <t>HOTMARIA MANURUNG</t>
+  </si>
+  <si>
+    <t>mariamanurung967@gmail.com</t>
+  </si>
+  <si>
+    <t>LIKE KRIS HANDAYANI ZEGA</t>
+  </si>
+  <si>
+    <t>kriszega530@gmail.com</t>
+  </si>
+  <si>
+    <t>MARDONES HUTABARAT</t>
+  </si>
+  <si>
+    <t>mardoneshutabarat9@gmail.com</t>
+  </si>
+  <si>
+    <t>SITI HABIBAH</t>
+  </si>
+  <si>
+    <t>sitihbibah02@gmail.com</t>
+  </si>
+  <si>
+    <t>SRI RAHAYU</t>
+  </si>
+  <si>
+    <t>srirahayurahayu670@gmail.com</t>
+  </si>
+  <si>
+    <t>TONINO TATOLEURU</t>
+  </si>
+  <si>
+    <t>toninotatoleurusib@gmail.com</t>
+  </si>
+  <si>
+    <t>yessicawidyas@gmail.com</t>
+  </si>
+  <si>
+    <t>sipahutaryessicawidyaangelina@gmail.com</t>
+  </si>
+  <si>
+    <t>yusimalaialaia@gmail.com</t>
+  </si>
+  <si>
+    <t>chindytiara1104@gmail.com</t>
+  </si>
+  <si>
+    <t>JACK NOFANDRY TASIRILELEU</t>
+  </si>
+  <si>
+    <t>jacknofandry@gmail.com</t>
+  </si>
+  <si>
+    <t>JESSY NATALIA OLAFIRSTA NDURU</t>
+  </si>
+  <si>
+    <t>jessynduru99@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,6 +636,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -519,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +674,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,10 +1025,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E977"/>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -922,23 +1071,23 @@
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">IF(C2=C3,A2,A2+1)</f>
+        <f>IF(C2=C3,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2023140004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>2023140003</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="A4:A67" si="0">IF(C3=C4,A3,A3+1)</f>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2023140004</v>
@@ -947,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -956,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2023140007</v>
+        <v>2023140004</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -971,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2023140008</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>2023140006</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -986,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2023140009</v>
+        <v>2023140007</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1001,13 +1150,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2023140012</v>
+        <v>2023140008</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1016,13 +1165,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2023140015</v>
+        <v>2023140009</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1031,115 +1180,118 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2023140017</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
+        <v>2023140010</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>2023140019</v>
-      </c>
-      <c r="C11" t="s">
-        <v>122</v>
+        <v>2023140010</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>2023140021</v>
+        <v>2023140012</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>2023140026</v>
+        <v>2023140013</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>2023140028</v>
+        <v>2023140015</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2023140029</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
+        <v>2023140016</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>2023140032</v>
+        <v>2023140017</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>2023140034</v>
+        <v>2023140018</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1148,13 +1300,13 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>2023140034</v>
+        <v>2023140019</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1163,13 +1315,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>2023140035</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
+        <v>2023140020</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1178,13 +1330,13 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>2023140036</v>
+        <v>2023140021</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1193,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>2023140039</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
+        <v>2023140022</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1208,13 +1360,13 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>2023140040</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
+        <v>2023140024</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1223,13 +1375,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>2023140041</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
+        <v>2023140025</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1238,13 +1390,10 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>2023140042</v>
+        <v>2023140026</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1253,13 +1402,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>2023140043</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
+        <v>2023140027</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1268,13 +1417,13 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>2023140044</v>
+        <v>2023140028</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1283,13 +1432,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>2023140045</v>
+        <v>2023140029</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1298,13 +1447,13 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>2023140046</v>
+        <v>2023140030</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1313,13 +1462,13 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>2023140047</v>
+        <v>2023140032</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1328,13 +1477,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>2023140049</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
+        <v>2023140033</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1343,13 +1492,13 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>2023140050</v>
+        <v>2023140034</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1358,244 +1507,253 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <v>2023140050</v>
+        <v>2023140034</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>2023140050</v>
+        <v>2023140035</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>2023140051</v>
+        <v>2023140036</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>2023140054</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
+        <v>2023140037</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>2023140056</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
+        <v>2023140038</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>2023140057</v>
+        <v>2023140039</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>2023140058</v>
+        <v>2023140040</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>2023140062</v>
+        <v>2023140041</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>2023140063</v>
+        <v>2023140042</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>2023140064</v>
+        <v>2023140043</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>2023140065</v>
+        <v>2023140044</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>2023140065</v>
+        <v>2023140045</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44">
-        <v>2023140066</v>
+        <v>2023140046</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B45">
-        <v>2023140067</v>
+        <v>2023140047</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>2023140068</v>
+        <v>2023140049</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>2023140071</v>
+        <v>2023140050</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>2023140072</v>
+        <v>2023140050</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1604,13 +1762,13 @@
         <v>43</v>
       </c>
       <c r="B49">
-        <v>2023140073</v>
+        <v>2023140050</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1619,13 +1777,13 @@
         <v>44</v>
       </c>
       <c r="B50">
-        <v>2023140075</v>
+        <v>2023140051</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1634,13 +1792,13 @@
         <v>45</v>
       </c>
       <c r="B51">
-        <v>2023140076</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
+        <v>2023140052</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1649,483 +1807,828 @@
         <v>46</v>
       </c>
       <c r="B52">
-        <v>2023140077</v>
-      </c>
-      <c r="C52" t="s">
-        <v>47</v>
+        <v>2023140053</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>2023140078</v>
-      </c>
-      <c r="C53" t="s">
-        <v>48</v>
+        <v>2023140053</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>2023140079</v>
+        <v>2023140054</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>2023140080</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
+        <v>2023140055</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>2023140081</v>
+        <v>2023140056</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>2023140082</v>
+        <v>2023140057</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>2023140084</v>
+        <v>2023140058</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>2023140085</v>
-      </c>
-      <c r="C59" t="s">
-        <v>54</v>
+        <v>2023140060</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>2023140086</v>
+        <v>2023140062</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>2023140087</v>
+        <v>2023140062</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B62">
-        <v>2023140088</v>
+        <v>2023140062</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B63">
-        <v>2023140089</v>
+        <v>2023140063</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B64">
-        <v>2023140090</v>
+        <v>2023140064</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B65">
-        <v>2023140091</v>
+        <v>2023140065</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B66">
-        <v>2023140092</v>
+        <v>2023140065</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A82" si="1">IF(C66=C67,A66,A66+1)</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="B67">
-        <v>2023140093</v>
+        <v>2023140066</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="1"/>
-        <v>62</v>
+        <f t="shared" ref="A68:A107" si="1">IF(C67=C68,A67,A67+1)</f>
+        <v>58</v>
       </c>
       <c r="B68">
-        <v>2023140094</v>
+        <v>2023140067</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B69">
-        <v>2023140094</v>
+        <v>2023140068</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B70">
-        <v>2023140095</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
+        <v>2023140070</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71">
-        <v>2023140096</v>
+        <v>2023140071</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B72">
-        <v>2023140097</v>
+        <v>2023140072</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>2023140098</v>
+        <v>2023140073</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>2023140099</v>
+        <v>2023140074</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B75">
-        <v>2023140100</v>
+        <v>2023140075</v>
       </c>
       <c r="C75" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B76">
-        <v>2023140100</v>
+        <v>2023140076</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B77">
-        <v>2023140101</v>
+        <v>2023140077</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B78">
-        <v>2023140102</v>
+        <v>2023140078</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79">
-        <v>2023140103</v>
+        <v>2023140079</v>
       </c>
       <c r="C79" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80">
-        <v>2023140104</v>
+        <v>2023140080</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>2023140105</v>
+        <v>2023140081</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>2023140082</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B83">
+        <v>2023140084</v>
+      </c>
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B82">
+      <c r="B84">
+        <v>2023140085</v>
+      </c>
+      <c r="C84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B85">
+        <v>2023140086</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B86">
+        <v>2023140087</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B87">
+        <v>2023140088</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B88">
+        <v>2023140089</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B89">
+        <v>2023140090</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B90">
+        <v>2023140091</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B91">
+        <v>2023140092</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B92">
+        <v>2023140093</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B93">
+        <v>2023140094</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B94">
+        <v>2023140094</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B95">
+        <v>2023140095</v>
+      </c>
+      <c r="C95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B96">
+        <v>2023140096</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B97">
+        <v>2023140097</v>
+      </c>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B98">
+        <v>2023140098</v>
+      </c>
+      <c r="C98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B99">
+        <v>2023140099</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B100">
+        <v>2023140100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B101">
+        <v>2023140100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <v>2023140101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B103">
+        <v>2023140102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B104">
+        <v>2023140103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B105">
+        <v>2023140104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B106">
+        <v>2023140105</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B107">
         <v>2023140108</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C107" t="s">
         <v>118</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2150,7 +2653,6 @@
     <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2987,45 +3489,71 @@
     <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B61:C136">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+  <conditionalFormatting sqref="B16:C19 B20:B23 B2:C13">
+    <cfRule type="duplicateValues" dxfId="12" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:C85 B23:B37">
+    <cfRule type="duplicateValues" dxfId="11" priority="286"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C19">
+    <cfRule type="duplicateValues" dxfId="10" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C97">
+    <cfRule type="duplicateValues" dxfId="9" priority="289"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C15">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B86:C161">
+    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H33">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="C2:C37">
+    <cfRule type="duplicateValues" dxfId="3" priority="233"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D19">
+    <cfRule type="duplicateValues" dxfId="2" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D37">
+    <cfRule type="duplicateValues" dxfId="1" priority="235"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H49">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C9">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C11">
-    <cfRule type="duplicateValues" dxfId="6" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="duplicateValues" dxfId="5" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12 B10:C11 B2:C8">
-    <cfRule type="duplicateValues" dxfId="4" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C21">
-    <cfRule type="duplicateValues" dxfId="3" priority="233"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D21">
-    <cfRule type="duplicateValues" dxfId="2" priority="235"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B21 B22:C60">
-    <cfRule type="duplicateValues" dxfId="1" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C72">
-    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>